--- a/resume_data.xlsx
+++ b/resume_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3497,11 +3497,7 @@
           <t>SHRAWANI WAGH</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
           <t>+919175142507</t>
@@ -3512,18 +3508,46 @@
           <t>skills, optimizing, app, functionality, and, ensuring, cross-platform, compatibility, skills, skills, front-end, development, ui/ux, frameworks, reactls, react, native, tailwind, css, programming, languages, =, java, c, javascript, tools, &amp;, technologies, html, css, git, github, figma, firebase, mysql, interpersona</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>PRAJWAL GURNULE</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>+91 9834367836</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>skills, languages, c, python, java, html, css, javascript, php, databases, mysql, firebase, frameworks, flutter, flask, streamlit, technologies/tools, git, github, figma, arduino, projects, computational, drug, discovery, using, mlm, |, github, link, mar, 2024, –, may, 2024, develope</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="n">
         <v>100</v>
       </c>
     </row>

--- a/resume_data.xlsx
+++ b/resume_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3521,11 +3521,7 @@
           <t>PRAJWAL GURNULE</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
           <t>+91 9834367836</t>
@@ -3536,19 +3532,75 @@
           <t>skills, languages, c, python, java, html, css, javascript, php, databases, mysql, firebase, frameworks, flutter, flask, streamlit, technologies/tools, git, github, figma, arduino, projects, computational, drug, discovery, using, mlm, |, github, link, mar, 2024, –, may, 2024, develope</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
         <v>100</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Aditya Kashikar</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>adityakashikar02@gmail.com</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>+91 9975798353</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>skills, languages, java, c, programming, python, databases, mysql, soft, skills, observation, teamwork, decision-making, time, management, analysis, courses, object-oriented, programming, in, java, data, structures, &amp;, algorithms, operating, systems, machine, learning, database, management, system, projects, lida, -, la</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Aditya Kashikar</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>adityakashikar02@gmail.com</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>+91 9975798353</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>skills, languages, java, c, programming, python, databases, mysql, soft, skills, observation, teamwork, decision-making, time, management, analysis, courses, object-oriented, programming, in, java, data, structures, &amp;, algorithms, operating, systems, machine, learning, database, management, system, projects, lida, -, la</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
